--- a/publishable_data/10.25.14 us and uk 900 columns.xlsx
+++ b/publishable_data/10.25.14 us and uk 900 columns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\myProjects\tfKeras\UCSC\CSE243\Project\publishable_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638AAB20-BDAC-446E-97A3-60B1B42F30AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA22073-39D0-4A23-AC55-B9BF1DC909BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10.24.14 us and uk" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="469">
   <si>
     <t>[New_Dx] If you answered “yes”, what is your new diagnosis and what year was your diagnosis changed? [other]</t>
   </si>
@@ -1412,6 +1412,24 @@
   </si>
   <si>
     <t>[Post_ADs] Since my first/original diagnosis of an Autoimmune Arthritis disease, I was diagnosed with:[Autoimmune myocarditis]</t>
+  </si>
+  <si>
+    <t>LAnk_24+</t>
+  </si>
+  <si>
+    <t>RFt_BackBtmHeel_24p</t>
+  </si>
+  <si>
+    <t>FS_RFt_Btm_ball</t>
+  </si>
+  <si>
+    <t>RFt_Btm_ball_0_12</t>
+  </si>
+  <si>
+    <t>RFt_Btm_ball_12_24</t>
+  </si>
+  <si>
+    <t>RFt_Btm_ball_24p</t>
   </si>
 </sst>
 </file>
@@ -1902,7 +1920,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1916,6 +1934,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2297,12 +2316,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:QG899"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AS1" sqref="AS1"/>
+    <sheetView tabSelected="1" topLeftCell="HR1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="IQ1" sqref="IQ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="112" max="113" width="9.140625" customWidth="1"/>
     <col min="293" max="293" width="8.85546875" style="5"/>
     <col min="312" max="313" width="8.85546875" style="5"/>
   </cols>
@@ -2753,7 +2773,7 @@
         <v>157</v>
       </c>
       <c r="ES1" t="s">
-        <v>390</v>
+        <v>463</v>
       </c>
       <c r="ET1" t="s">
         <v>390</v>
@@ -2876,7 +2896,7 @@
         <v>166</v>
       </c>
       <c r="GH1" t="s">
-        <v>166</v>
+        <v>466</v>
       </c>
       <c r="GI1" t="s">
         <v>167</v>
@@ -2909,7 +2929,7 @@
         <v>180</v>
       </c>
       <c r="GS1" t="s">
-        <v>180</v>
+        <v>465</v>
       </c>
       <c r="GT1" t="s">
         <v>183</v>
@@ -2939,7 +2959,7 @@
         <v>189</v>
       </c>
       <c r="HC1" t="s">
-        <v>189</v>
+        <v>467</v>
       </c>
       <c r="HD1" t="s">
         <v>159</v>
@@ -2960,7 +2980,7 @@
         <v>194</v>
       </c>
       <c r="HJ1" t="s">
-        <v>186</v>
+        <v>464</v>
       </c>
       <c r="HK1" t="s">
         <v>195</v>
@@ -2972,7 +2992,7 @@
         <v>197</v>
       </c>
       <c r="HN1" t="s">
-        <v>197</v>
+        <v>468</v>
       </c>
       <c r="HO1" t="s">
         <v>198</v>
@@ -3058,7 +3078,7 @@
       <c r="IP1" t="s">
         <v>225</v>
       </c>
-      <c r="IQ1" t="s">
+      <c r="IQ1" s="9" t="s">
         <v>226</v>
       </c>
       <c r="IR1" t="s">

--- a/publishable_data/10.25.14 us and uk 900 columns.xlsx
+++ b/publishable_data/10.25.14 us and uk 900 columns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\myProjects\tfKeras\UCSC\CSE243\Project\publishable_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA22073-39D0-4A23-AC55-B9BF1DC909BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF0BDCF-766B-4078-AB60-59D9CBF7A487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10.24.14 us and uk" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <t>[psor] 2. Psoriatic Arthritis Is there any other symptom not mentioned in this study that you feel was a part of your Psoriatic Arthritis in the first 0 to &lt; 24 months from onset?</t>
   </si>
   <si>
-    <t>[sys] 3. Systemic Lupus Erythematosus   At any time prior to or at the time of diagnosis did your blood test positive for antinuclear antibodies (ANA)?</t>
-  </si>
-  <si>
     <t>[sys_1] Is there any other symptom not mentioned in this study that you feel was a part of your Systemic Lupus Erythematosus disease in the first 0 to &lt;24 months from onset?</t>
   </si>
   <si>
@@ -1430,6 +1427,9 @@
   </si>
   <si>
     <t>RFt_Btm_ball_24p</t>
+  </si>
+  <si>
+    <t>[sys] 3. Systemic Lupus Erythematosus  At any time prior to or at the time of diagnosis did your blood test positive for antinuclear antibodies (ANA)?</t>
   </si>
 </sst>
 </file>
@@ -2316,8 +2316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:QG899"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="HR1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="IQ1" sqref="IQ1"/>
+    <sheetView tabSelected="1" topLeftCell="PP1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="PS1" sqref="PS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2329,28 +2329,28 @@
   <sheetData>
     <row r="1" spans="1:449" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>59</v>
-      </c>
-      <c r="H1" t="s">
-        <v>60</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -2359,1042 +2359,1042 @@
         <v>1</v>
       </c>
       <c r="K1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" t="s">
         <v>61</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>62</v>
       </c>
-      <c r="M1" t="s">
-        <v>63</v>
-      </c>
       <c r="N1" t="s">
+        <v>404</v>
+      </c>
+      <c r="O1" t="s">
         <v>405</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>406</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>407</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>408</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>409</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>410</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>411</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>412</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>413</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>414</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>415</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>416</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>417</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>418</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>419</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>420</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>421</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>422</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>423</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>424</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>425</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>426</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>427</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>428</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>429</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>430</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>431</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>432</v>
       </c>
       <c r="AP1" t="s">
         <v>2</v>
       </c>
       <c r="AQ1" t="s">
+        <v>432</v>
+      </c>
+      <c r="AR1" t="s">
         <v>433</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
+        <v>461</v>
+      </c>
+      <c r="AT1" t="s">
         <v>434</v>
       </c>
-      <c r="AS1" t="s">
-        <v>462</v>
-      </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>435</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>436</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>437</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>438</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>439</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>440</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>441</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>442</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>443</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>444</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>445</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>446</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>447</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>448</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>449</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>450</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>451</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>452</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>453</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>454</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>455</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>456</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>457</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>458</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>459</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>460</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>461</v>
       </c>
       <c r="BU1" t="s">
         <v>3</v>
       </c>
       <c r="BV1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BW1" t="s">
         <v>64</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>65</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>66</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>67</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>68</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>69</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>70</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>71</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>72</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>73</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>74</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CJ1" t="s">
         <v>75</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>76</v>
       </c>
       <c r="CK1" t="s">
         <v>4</v>
       </c>
       <c r="CL1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CN1" t="s">
         <v>79</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CO1" t="s">
         <v>81</v>
       </c>
-      <c r="CN1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CQ1" t="s">
         <v>82</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CR1" t="s">
         <v>84</v>
       </c>
-      <c r="CQ1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>85</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>86</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>87</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>88</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>89</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CX1" t="s">
         <v>90</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>91</v>
       </c>
       <c r="CY1" t="s">
         <v>5</v>
       </c>
       <c r="CZ1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DA1" t="s">
         <v>92</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DB1" t="s">
         <v>93</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DC1" t="s">
         <v>94</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DD1" t="s">
         <v>95</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DE1" t="s">
         <v>96</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DF1" t="s">
         <v>97</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>98</v>
       </c>
       <c r="DG1" t="s">
         <v>6</v>
       </c>
       <c r="DH1" t="s">
+        <v>98</v>
+      </c>
+      <c r="DI1" t="s">
         <v>99</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DJ1" t="s">
         <v>100</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DK1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="DL1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="DM1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="DN1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="DO1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="DP1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="DQ1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="DR1" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="DS1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="DT1" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="DU1" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="DV1" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="DW1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="DK1" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="DL1" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="DM1" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="DN1" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="DO1" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="DP1" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="DQ1" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="DR1" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="DS1" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="DT1" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="DU1" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="DV1" s="6" t="s">
+      <c r="DX1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="DY1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="DZ1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="EA1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="EB1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="EC1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="ED1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="EE1" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="EF1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="EG1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="EH1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="EI1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="EJ1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="EK1" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="EL1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="EM1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="EN1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="EO1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="EP1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="EQ1" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="DW1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="DX1" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="DY1" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="DZ1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="EA1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="EB1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="EC1" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="ED1" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="EE1" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="EF1" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="EG1" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="EH1" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="EI1" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="EJ1" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="EK1" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="EL1" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="EM1" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="EN1" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="EO1" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="EP1" s="7" t="s">
+      <c r="ER1" t="s">
+        <v>156</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>462</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>389</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>390</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>391</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>392</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>393</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>394</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>395</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>396</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>397</v>
+      </c>
+      <c r="FC1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="EQ1" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="ER1" t="s">
+      <c r="FD1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>123</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>124</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FH1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="FI1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>127</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>128</v>
+      </c>
+      <c r="FL1" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="FM1" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="FN1" t="s">
         <v>157</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="FO1" t="s">
+        <v>398</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>131</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>132</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>133</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>134</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>135</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>136</v>
+      </c>
+      <c r="FW1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="FX1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>159</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>162</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>167</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>173</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>174</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>163</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>164</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>165</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>465</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>166</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>169</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>170</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>171</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>172</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>175</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>176</v>
+      </c>
+      <c r="GP1" t="s">
+        <v>177</v>
+      </c>
+      <c r="GQ1" t="s">
+        <v>178</v>
+      </c>
+      <c r="GR1" t="s">
+        <v>179</v>
+      </c>
+      <c r="GS1" t="s">
+        <v>464</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>182</v>
+      </c>
+      <c r="GU1" t="s">
+        <v>180</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>181</v>
+      </c>
+      <c r="GW1" t="s">
+        <v>183</v>
+      </c>
+      <c r="GX1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GY1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GZ1" t="s">
+        <v>186</v>
+      </c>
+      <c r="HA1" t="s">
+        <v>187</v>
+      </c>
+      <c r="HB1" t="s">
+        <v>188</v>
+      </c>
+      <c r="HC1" t="s">
+        <v>466</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>158</v>
+      </c>
+      <c r="HE1" t="s">
+        <v>189</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>190</v>
+      </c>
+      <c r="HG1" t="s">
+        <v>191</v>
+      </c>
+      <c r="HH1" t="s">
+        <v>192</v>
+      </c>
+      <c r="HI1" t="s">
+        <v>193</v>
+      </c>
+      <c r="HJ1" t="s">
         <v>463</v>
       </c>
-      <c r="ET1" t="s">
-        <v>390</v>
-      </c>
-      <c r="EU1" t="s">
-        <v>391</v>
-      </c>
-      <c r="EV1" t="s">
-        <v>392</v>
-      </c>
-      <c r="EW1" t="s">
-        <v>393</v>
-      </c>
-      <c r="EX1" t="s">
-        <v>394</v>
-      </c>
-      <c r="EY1" t="s">
-        <v>395</v>
-      </c>
-      <c r="EZ1" t="s">
-        <v>396</v>
-      </c>
-      <c r="FA1" t="s">
-        <v>397</v>
-      </c>
-      <c r="FB1" t="s">
-        <v>398</v>
-      </c>
-      <c r="FC1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="FD1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="FE1" t="s">
-        <v>124</v>
-      </c>
-      <c r="FF1" t="s">
-        <v>125</v>
-      </c>
-      <c r="FG1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FH1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="FI1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="FJ1" t="s">
-        <v>128</v>
-      </c>
-      <c r="FK1" t="s">
-        <v>129</v>
-      </c>
-      <c r="FL1" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="FM1" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="FN1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FO1" t="s">
+      <c r="HK1" t="s">
+        <v>194</v>
+      </c>
+      <c r="HL1" t="s">
+        <v>195</v>
+      </c>
+      <c r="HM1" t="s">
+        <v>196</v>
+      </c>
+      <c r="HN1" t="s">
+        <v>467</v>
+      </c>
+      <c r="HO1" t="s">
+        <v>197</v>
+      </c>
+      <c r="HP1" t="s">
+        <v>198</v>
+      </c>
+      <c r="HQ1" t="s">
+        <v>199</v>
+      </c>
+      <c r="HR1" t="s">
+        <v>200</v>
+      </c>
+      <c r="HS1" t="s">
+        <v>201</v>
+      </c>
+      <c r="HT1" t="s">
+        <v>202</v>
+      </c>
+      <c r="HU1" t="s">
+        <v>203</v>
+      </c>
+      <c r="HV1" t="s">
+        <v>204</v>
+      </c>
+      <c r="HW1" t="s">
+        <v>205</v>
+      </c>
+      <c r="HX1" t="s">
+        <v>206</v>
+      </c>
+      <c r="HY1" t="s">
+        <v>207</v>
+      </c>
+      <c r="HZ1" t="s">
+        <v>208</v>
+      </c>
+      <c r="IA1" t="s">
+        <v>209</v>
+      </c>
+      <c r="IB1" t="s">
+        <v>210</v>
+      </c>
+      <c r="IC1" t="s">
+        <v>212</v>
+      </c>
+      <c r="ID1" t="s">
+        <v>211</v>
+      </c>
+      <c r="IE1" t="s">
+        <v>213</v>
+      </c>
+      <c r="IF1" t="s">
+        <v>214</v>
+      </c>
+      <c r="IG1" t="s">
+        <v>215</v>
+      </c>
+      <c r="IH1" t="s">
+        <v>216</v>
+      </c>
+      <c r="II1" t="s">
+        <v>217</v>
+      </c>
+      <c r="IJ1" t="s">
+        <v>218</v>
+      </c>
+      <c r="IK1" t="s">
+        <v>219</v>
+      </c>
+      <c r="IL1" t="s">
+        <v>220</v>
+      </c>
+      <c r="IM1" t="s">
+        <v>221</v>
+      </c>
+      <c r="IN1" t="s">
+        <v>222</v>
+      </c>
+      <c r="IO1" t="s">
+        <v>223</v>
+      </c>
+      <c r="IP1" t="s">
+        <v>224</v>
+      </c>
+      <c r="IQ1" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="IR1" t="s">
+        <v>226</v>
+      </c>
+      <c r="IS1" t="s">
+        <v>227</v>
+      </c>
+      <c r="IT1" t="s">
+        <v>228</v>
+      </c>
+      <c r="IU1" t="s">
+        <v>229</v>
+      </c>
+      <c r="IV1" t="s">
+        <v>230</v>
+      </c>
+      <c r="IW1" t="s">
+        <v>231</v>
+      </c>
+      <c r="IX1" t="s">
+        <v>232</v>
+      </c>
+      <c r="IY1" t="s">
+        <v>233</v>
+      </c>
+      <c r="IZ1" t="s">
+        <v>234</v>
+      </c>
+      <c r="JA1" t="s">
+        <v>235</v>
+      </c>
+      <c r="JB1" t="s">
+        <v>236</v>
+      </c>
+      <c r="JC1" t="s">
+        <v>237</v>
+      </c>
+      <c r="JD1" t="s">
+        <v>238</v>
+      </c>
+      <c r="JE1" t="s">
+        <v>239</v>
+      </c>
+      <c r="JF1" t="s">
+        <v>240</v>
+      </c>
+      <c r="JG1" t="s">
+        <v>241</v>
+      </c>
+      <c r="JH1" t="s">
+        <v>242</v>
+      </c>
+      <c r="JI1" t="s">
+        <v>243</v>
+      </c>
+      <c r="JJ1" t="s">
+        <v>244</v>
+      </c>
+      <c r="JK1" t="s">
+        <v>245</v>
+      </c>
+      <c r="JL1" t="s">
+        <v>246</v>
+      </c>
+      <c r="JM1" t="s">
+        <v>247</v>
+      </c>
+      <c r="JN1" t="s">
+        <v>248</v>
+      </c>
+      <c r="JO1" t="s">
+        <v>249</v>
+      </c>
+      <c r="JP1" t="s">
+        <v>250</v>
+      </c>
+      <c r="JQ1" t="s">
+        <v>251</v>
+      </c>
+      <c r="JR1" t="s">
+        <v>252</v>
+      </c>
+      <c r="JS1" t="s">
+        <v>253</v>
+      </c>
+      <c r="JT1" t="s">
+        <v>254</v>
+      </c>
+      <c r="JU1" t="s">
+        <v>255</v>
+      </c>
+      <c r="JV1" t="s">
+        <v>256</v>
+      </c>
+      <c r="JW1" t="s">
+        <v>257</v>
+      </c>
+      <c r="JX1" t="s">
+        <v>258</v>
+      </c>
+      <c r="JY1" t="s">
+        <v>259</v>
+      </c>
+      <c r="JZ1" t="s">
+        <v>260</v>
+      </c>
+      <c r="KA1" t="s">
+        <v>261</v>
+      </c>
+      <c r="KB1" t="s">
+        <v>262</v>
+      </c>
+      <c r="KC1" t="s">
+        <v>263</v>
+      </c>
+      <c r="KD1" t="s">
+        <v>401</v>
+      </c>
+      <c r="KE1" t="s">
         <v>399</v>
       </c>
-      <c r="FP1" t="s">
-        <v>132</v>
-      </c>
-      <c r="FQ1" t="s">
-        <v>133</v>
-      </c>
-      <c r="FR1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FS1" t="s">
-        <v>134</v>
-      </c>
-      <c r="FT1" t="s">
-        <v>135</v>
-      </c>
-      <c r="FU1" t="s">
-        <v>136</v>
-      </c>
-      <c r="FV1" t="s">
-        <v>137</v>
-      </c>
-      <c r="FW1" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="FX1" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="FY1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FZ1" t="s">
-        <v>160</v>
-      </c>
-      <c r="GA1" t="s">
-        <v>163</v>
-      </c>
-      <c r="GB1" t="s">
-        <v>168</v>
-      </c>
-      <c r="GC1" t="s">
-        <v>174</v>
-      </c>
-      <c r="GD1" t="s">
-        <v>175</v>
-      </c>
-      <c r="GE1" t="s">
-        <v>164</v>
-      </c>
-      <c r="GF1" t="s">
-        <v>165</v>
-      </c>
-      <c r="GG1" t="s">
-        <v>166</v>
-      </c>
-      <c r="GH1" t="s">
-        <v>466</v>
-      </c>
-      <c r="GI1" t="s">
-        <v>167</v>
-      </c>
-      <c r="GJ1" t="s">
-        <v>170</v>
-      </c>
-      <c r="GK1" t="s">
-        <v>171</v>
-      </c>
-      <c r="GL1" t="s">
-        <v>172</v>
-      </c>
-      <c r="GM1" t="s">
-        <v>173</v>
-      </c>
-      <c r="GN1" t="s">
-        <v>176</v>
-      </c>
-      <c r="GO1" t="s">
-        <v>177</v>
-      </c>
-      <c r="GP1" t="s">
-        <v>178</v>
-      </c>
-      <c r="GQ1" t="s">
-        <v>179</v>
-      </c>
-      <c r="GR1" t="s">
-        <v>180</v>
-      </c>
-      <c r="GS1" t="s">
-        <v>465</v>
-      </c>
-      <c r="GT1" t="s">
-        <v>183</v>
-      </c>
-      <c r="GU1" t="s">
-        <v>181</v>
-      </c>
-      <c r="GV1" t="s">
-        <v>182</v>
-      </c>
-      <c r="GW1" t="s">
-        <v>184</v>
-      </c>
-      <c r="GX1" t="s">
-        <v>185</v>
-      </c>
-      <c r="GY1" t="s">
-        <v>186</v>
-      </c>
-      <c r="GZ1" t="s">
-        <v>187</v>
-      </c>
-      <c r="HA1" t="s">
-        <v>188</v>
-      </c>
-      <c r="HB1" t="s">
-        <v>189</v>
-      </c>
-      <c r="HC1" t="s">
-        <v>467</v>
-      </c>
-      <c r="HD1" t="s">
-        <v>159</v>
-      </c>
-      <c r="HE1" t="s">
-        <v>190</v>
-      </c>
-      <c r="HF1" t="s">
-        <v>191</v>
-      </c>
-      <c r="HG1" t="s">
-        <v>192</v>
-      </c>
-      <c r="HH1" t="s">
-        <v>193</v>
-      </c>
-      <c r="HI1" t="s">
-        <v>194</v>
-      </c>
-      <c r="HJ1" t="s">
-        <v>464</v>
-      </c>
-      <c r="HK1" t="s">
-        <v>195</v>
-      </c>
-      <c r="HL1" t="s">
-        <v>196</v>
-      </c>
-      <c r="HM1" t="s">
-        <v>197</v>
-      </c>
-      <c r="HN1" t="s">
-        <v>468</v>
-      </c>
-      <c r="HO1" t="s">
-        <v>198</v>
-      </c>
-      <c r="HP1" t="s">
-        <v>199</v>
-      </c>
-      <c r="HQ1" t="s">
-        <v>200</v>
-      </c>
-      <c r="HR1" t="s">
-        <v>201</v>
-      </c>
-      <c r="HS1" t="s">
-        <v>202</v>
-      </c>
-      <c r="HT1" t="s">
-        <v>203</v>
-      </c>
-      <c r="HU1" t="s">
-        <v>204</v>
-      </c>
-      <c r="HV1" t="s">
-        <v>205</v>
-      </c>
-      <c r="HW1" t="s">
-        <v>206</v>
-      </c>
-      <c r="HX1" t="s">
-        <v>207</v>
-      </c>
-      <c r="HY1" t="s">
-        <v>208</v>
-      </c>
-      <c r="HZ1" t="s">
-        <v>209</v>
-      </c>
-      <c r="IA1" t="s">
-        <v>210</v>
-      </c>
-      <c r="IB1" t="s">
-        <v>211</v>
-      </c>
-      <c r="IC1" t="s">
-        <v>213</v>
-      </c>
-      <c r="ID1" t="s">
-        <v>212</v>
-      </c>
-      <c r="IE1" t="s">
-        <v>214</v>
-      </c>
-      <c r="IF1" t="s">
-        <v>215</v>
-      </c>
-      <c r="IG1" t="s">
-        <v>216</v>
-      </c>
-      <c r="IH1" t="s">
-        <v>217</v>
-      </c>
-      <c r="II1" t="s">
-        <v>218</v>
-      </c>
-      <c r="IJ1" t="s">
-        <v>219</v>
-      </c>
-      <c r="IK1" t="s">
-        <v>220</v>
-      </c>
-      <c r="IL1" t="s">
-        <v>221</v>
-      </c>
-      <c r="IM1" t="s">
-        <v>222</v>
-      </c>
-      <c r="IN1" t="s">
-        <v>223</v>
-      </c>
-      <c r="IO1" t="s">
-        <v>224</v>
-      </c>
-      <c r="IP1" t="s">
-        <v>225</v>
-      </c>
-      <c r="IQ1" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="IR1" t="s">
-        <v>227</v>
-      </c>
-      <c r="IS1" t="s">
-        <v>228</v>
-      </c>
-      <c r="IT1" t="s">
-        <v>229</v>
-      </c>
-      <c r="IU1" t="s">
-        <v>230</v>
-      </c>
-      <c r="IV1" t="s">
-        <v>231</v>
-      </c>
-      <c r="IW1" t="s">
-        <v>232</v>
-      </c>
-      <c r="IX1" t="s">
-        <v>233</v>
-      </c>
-      <c r="IY1" t="s">
-        <v>234</v>
-      </c>
-      <c r="IZ1" t="s">
-        <v>235</v>
-      </c>
-      <c r="JA1" t="s">
-        <v>236</v>
-      </c>
-      <c r="JB1" t="s">
-        <v>237</v>
-      </c>
-      <c r="JC1" t="s">
-        <v>238</v>
-      </c>
-      <c r="JD1" t="s">
-        <v>239</v>
-      </c>
-      <c r="JE1" t="s">
-        <v>240</v>
-      </c>
-      <c r="JF1" t="s">
-        <v>241</v>
-      </c>
-      <c r="JG1" t="s">
-        <v>242</v>
-      </c>
-      <c r="JH1" t="s">
-        <v>243</v>
-      </c>
-      <c r="JI1" t="s">
-        <v>244</v>
-      </c>
-      <c r="JJ1" t="s">
-        <v>245</v>
-      </c>
-      <c r="JK1" t="s">
-        <v>246</v>
-      </c>
-      <c r="JL1" t="s">
-        <v>247</v>
-      </c>
-      <c r="JM1" t="s">
-        <v>248</v>
-      </c>
-      <c r="JN1" t="s">
-        <v>249</v>
-      </c>
-      <c r="JO1" t="s">
-        <v>250</v>
-      </c>
-      <c r="JP1" t="s">
-        <v>251</v>
-      </c>
-      <c r="JQ1" t="s">
-        <v>252</v>
-      </c>
-      <c r="JR1" t="s">
-        <v>253</v>
-      </c>
-      <c r="JS1" t="s">
-        <v>254</v>
-      </c>
-      <c r="JT1" t="s">
-        <v>255</v>
-      </c>
-      <c r="JU1" t="s">
-        <v>256</v>
-      </c>
-      <c r="JV1" t="s">
-        <v>257</v>
-      </c>
-      <c r="JW1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JX1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JY1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JZ1" t="s">
-        <v>261</v>
-      </c>
-      <c r="KA1" t="s">
-        <v>262</v>
-      </c>
-      <c r="KB1" t="s">
-        <v>263</v>
-      </c>
-      <c r="KC1" t="s">
+      <c r="KF1" t="s">
+        <v>400</v>
+      </c>
+      <c r="KG1" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="KD1" t="s">
-        <v>402</v>
-      </c>
-      <c r="KE1" t="s">
-        <v>400</v>
-      </c>
-      <c r="KF1" t="s">
-        <v>401</v>
-      </c>
-      <c r="KG1" s="5" t="s">
+      <c r="KH1" t="s">
         <v>265</v>
       </c>
-      <c r="KH1" t="s">
+      <c r="KI1" t="s">
         <v>266</v>
       </c>
-      <c r="KI1" t="s">
+      <c r="KJ1" t="s">
         <v>267</v>
       </c>
-      <c r="KJ1" t="s">
+      <c r="KK1" t="s">
         <v>268</v>
       </c>
-      <c r="KK1" t="s">
+      <c r="KL1" t="s">
         <v>269</v>
       </c>
-      <c r="KL1" t="s">
+      <c r="KM1" t="s">
         <v>270</v>
       </c>
-      <c r="KM1" t="s">
+      <c r="KN1" t="s">
         <v>271</v>
       </c>
-      <c r="KN1" t="s">
+      <c r="KO1" t="s">
         <v>272</v>
       </c>
-      <c r="KO1" t="s">
+      <c r="KP1" t="s">
         <v>273</v>
       </c>
-      <c r="KP1" t="s">
+      <c r="KQ1" t="s">
         <v>274</v>
       </c>
-      <c r="KQ1" t="s">
+      <c r="KR1" t="s">
         <v>275</v>
       </c>
-      <c r="KR1" t="s">
+      <c r="KS1" t="s">
         <v>276</v>
       </c>
-      <c r="KS1" t="s">
+      <c r="KT1" t="s">
         <v>277</v>
       </c>
-      <c r="KT1" t="s">
+      <c r="KU1" t="s">
         <v>278</v>
       </c>
-      <c r="KU1" t="s">
+      <c r="KV1" t="s">
         <v>279</v>
       </c>
-      <c r="KV1" t="s">
+      <c r="KW1" t="s">
         <v>280</v>
       </c>
-      <c r="KW1" t="s">
+      <c r="KX1" t="s">
         <v>281</v>
       </c>
-      <c r="KX1" t="s">
+      <c r="KY1" t="s">
         <v>282</v>
       </c>
-      <c r="KY1" t="s">
+      <c r="KZ1" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="KZ1" s="5" t="s">
+      <c r="LA1" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="LA1" s="5" t="s">
+      <c r="LB1" t="s">
         <v>285</v>
       </c>
-      <c r="LB1" t="s">
+      <c r="LC1" t="s">
         <v>286</v>
       </c>
-      <c r="LC1" t="s">
+      <c r="LD1" t="s">
         <v>287</v>
       </c>
-      <c r="LD1" t="s">
+      <c r="LE1" t="s">
         <v>288</v>
       </c>
-      <c r="LE1" t="s">
+      <c r="LF1" t="s">
         <v>289</v>
       </c>
-      <c r="LF1" t="s">
+      <c r="LG1" t="s">
         <v>290</v>
       </c>
-      <c r="LG1" t="s">
+      <c r="LH1" t="s">
         <v>291</v>
       </c>
-      <c r="LH1" t="s">
+      <c r="LI1" t="s">
         <v>292</v>
       </c>
-      <c r="LI1" t="s">
+      <c r="LJ1" t="s">
         <v>293</v>
       </c>
-      <c r="LJ1" t="s">
+      <c r="LK1" t="s">
         <v>294</v>
       </c>
-      <c r="LK1" t="s">
+      <c r="LL1" t="s">
         <v>295</v>
       </c>
-      <c r="LL1" t="s">
+      <c r="LM1" t="s">
         <v>296</v>
       </c>
-      <c r="LM1" t="s">
+      <c r="LN1" t="s">
         <v>297</v>
       </c>
-      <c r="LN1" t="s">
+      <c r="LO1" t="s">
         <v>298</v>
       </c>
-      <c r="LO1" t="s">
+      <c r="LP1" t="s">
         <v>299</v>
       </c>
-      <c r="LP1" t="s">
+      <c r="LQ1" t="s">
         <v>300</v>
       </c>
-      <c r="LQ1" t="s">
+      <c r="LR1" t="s">
         <v>301</v>
       </c>
-      <c r="LR1" t="s">
+      <c r="LS1" t="s">
         <v>302</v>
       </c>
-      <c r="LS1" t="s">
+      <c r="LT1" t="s">
+        <v>304</v>
+      </c>
+      <c r="LU1" t="s">
         <v>303</v>
       </c>
-      <c r="LT1" t="s">
+      <c r="LV1" t="s">
         <v>305</v>
       </c>
-      <c r="LU1" t="s">
-        <v>304</v>
-      </c>
-      <c r="LV1" t="s">
+      <c r="LW1" t="s">
         <v>306</v>
       </c>
-      <c r="LW1" t="s">
+      <c r="LX1" t="s">
         <v>307</v>
       </c>
-      <c r="LX1" t="s">
+      <c r="LY1" t="s">
         <v>308</v>
       </c>
-      <c r="LY1" t="s">
+      <c r="LZ1" t="s">
         <v>309</v>
       </c>
-      <c r="LZ1" t="s">
+      <c r="MA1" t="s">
         <v>310</v>
       </c>
-      <c r="MA1" t="s">
+      <c r="MB1" t="s">
         <v>311</v>
       </c>
-      <c r="MB1" t="s">
+      <c r="MC1" t="s">
         <v>312</v>
       </c>
-      <c r="MC1" t="s">
+      <c r="MD1" t="s">
         <v>313</v>
       </c>
-      <c r="MD1" t="s">
+      <c r="ME1" t="s">
         <v>314</v>
       </c>
-      <c r="ME1" t="s">
+      <c r="MF1" t="s">
         <v>315</v>
       </c>
-      <c r="MF1" t="s">
+      <c r="MG1" t="s">
         <v>316</v>
       </c>
-      <c r="MG1" t="s">
+      <c r="MH1" t="s">
         <v>317</v>
       </c>
-      <c r="MH1" t="s">
+      <c r="MI1" t="s">
         <v>318</v>
       </c>
-      <c r="MI1" t="s">
+      <c r="MJ1" t="s">
         <v>319</v>
       </c>
-      <c r="MJ1" t="s">
+      <c r="MK1" t="s">
         <v>320</v>
       </c>
-      <c r="MK1" t="s">
+      <c r="ML1" t="s">
         <v>321</v>
       </c>
-      <c r="ML1" t="s">
+      <c r="MM1" t="s">
         <v>322</v>
       </c>
-      <c r="MM1" t="s">
+      <c r="MN1" t="s">
         <v>323</v>
       </c>
-      <c r="MN1" t="s">
+      <c r="MO1" t="s">
         <v>324</v>
       </c>
-      <c r="MO1" t="s">
+      <c r="MP1" t="s">
         <v>325</v>
       </c>
-      <c r="MP1" t="s">
+      <c r="MQ1" t="s">
         <v>326</v>
       </c>
-      <c r="MQ1" t="s">
+      <c r="MR1" t="s">
         <v>327</v>
-      </c>
-      <c r="MR1" t="s">
-        <v>328</v>
       </c>
       <c r="MS1" t="s">
         <v>7</v>
@@ -3412,61 +3412,61 @@
         <v>11</v>
       </c>
       <c r="MX1" t="s">
+        <v>330</v>
+      </c>
+      <c r="MY1" t="s">
         <v>331</v>
       </c>
-      <c r="MY1" t="s">
+      <c r="MZ1" t="s">
+        <v>402</v>
+      </c>
+      <c r="NA1" t="s">
+        <v>403</v>
+      </c>
+      <c r="NB1" t="s">
+        <v>328</v>
+      </c>
+      <c r="NC1" t="s">
+        <v>329</v>
+      </c>
+      <c r="ND1" t="s">
+        <v>335</v>
+      </c>
+      <c r="NE1" t="s">
+        <v>333</v>
+      </c>
+      <c r="NF1" t="s">
         <v>332</v>
       </c>
-      <c r="MZ1" t="s">
-        <v>403</v>
-      </c>
-      <c r="NA1" t="s">
-        <v>404</v>
-      </c>
-      <c r="NB1" t="s">
-        <v>329</v>
-      </c>
-      <c r="NC1" t="s">
-        <v>330</v>
-      </c>
-      <c r="ND1" t="s">
+      <c r="NG1" t="s">
+        <v>334</v>
+      </c>
+      <c r="NH1" t="s">
         <v>336</v>
       </c>
-      <c r="NE1" t="s">
-        <v>334</v>
-      </c>
-      <c r="NF1" t="s">
-        <v>333</v>
-      </c>
-      <c r="NG1" t="s">
-        <v>335</v>
-      </c>
-      <c r="NH1" t="s">
+      <c r="NI1" t="s">
         <v>337</v>
       </c>
-      <c r="NI1" t="s">
+      <c r="NJ1" t="s">
         <v>338</v>
       </c>
-      <c r="NJ1" t="s">
+      <c r="NK1" t="s">
         <v>339</v>
       </c>
-      <c r="NK1" t="s">
+      <c r="NL1" t="s">
         <v>340</v>
       </c>
-      <c r="NL1" t="s">
+      <c r="NM1" t="s">
         <v>341</v>
       </c>
-      <c r="NM1" t="s">
+      <c r="NN1" t="s">
         <v>342</v>
       </c>
-      <c r="NN1" t="s">
+      <c r="NO1" t="s">
         <v>343</v>
       </c>
-      <c r="NO1" t="s">
+      <c r="NP1" t="s">
         <v>344</v>
-      </c>
-      <c r="NP1" t="s">
-        <v>345</v>
       </c>
       <c r="NQ1" t="s">
         <v>12</v>
@@ -3475,25 +3475,25 @@
         <v>13</v>
       </c>
       <c r="NS1" t="s">
+        <v>345</v>
+      </c>
+      <c r="NT1" t="s">
         <v>346</v>
       </c>
-      <c r="NT1" t="s">
+      <c r="NU1" t="s">
         <v>347</v>
       </c>
-      <c r="NU1" t="s">
+      <c r="NV1" t="s">
         <v>348</v>
       </c>
-      <c r="NV1" t="s">
+      <c r="NW1" t="s">
         <v>349</v>
       </c>
-      <c r="NW1" t="s">
+      <c r="NX1" t="s">
         <v>350</v>
       </c>
-      <c r="NX1" t="s">
+      <c r="NY1" t="s">
         <v>351</v>
-      </c>
-      <c r="NY1" t="s">
-        <v>352</v>
       </c>
       <c r="NZ1" t="s">
         <v>14</v>
@@ -3502,127 +3502,127 @@
         <v>15</v>
       </c>
       <c r="OB1" t="s">
+        <v>352</v>
+      </c>
+      <c r="OC1" t="s">
         <v>353</v>
       </c>
-      <c r="OC1" t="s">
+      <c r="OD1" t="s">
         <v>354</v>
       </c>
-      <c r="OD1" t="s">
+      <c r="OE1" t="s">
         <v>355</v>
       </c>
-      <c r="OE1" t="s">
+      <c r="OF1" t="s">
         <v>356</v>
       </c>
-      <c r="OF1" t="s">
+      <c r="OG1" t="s">
         <v>357</v>
       </c>
-      <c r="OG1" t="s">
+      <c r="OH1" t="s">
         <v>358</v>
       </c>
-      <c r="OH1" t="s">
+      <c r="OI1" t="s">
         <v>359</v>
       </c>
-      <c r="OI1" t="s">
+      <c r="OJ1" t="s">
         <v>360</v>
       </c>
-      <c r="OJ1" t="s">
+      <c r="OK1" t="s">
         <v>361</v>
       </c>
-      <c r="OK1" t="s">
+      <c r="OL1" t="s">
         <v>362</v>
       </c>
-      <c r="OL1" t="s">
+      <c r="OM1" t="s">
         <v>363</v>
       </c>
-      <c r="OM1" t="s">
+      <c r="ON1" t="s">
         <v>364</v>
       </c>
-      <c r="ON1" t="s">
+      <c r="OO1" t="s">
         <v>365</v>
       </c>
-      <c r="OO1" t="s">
+      <c r="OP1" t="s">
         <v>366</v>
       </c>
-      <c r="OP1" t="s">
+      <c r="OQ1" t="s">
         <v>367</v>
       </c>
-      <c r="OQ1" t="s">
+      <c r="OR1" t="s">
         <v>368</v>
       </c>
-      <c r="OR1" t="s">
+      <c r="OS1" t="s">
         <v>369</v>
       </c>
-      <c r="OS1" t="s">
+      <c r="OT1" t="s">
         <v>370</v>
       </c>
-      <c r="OT1" t="s">
+      <c r="OU1" t="s">
         <v>371</v>
       </c>
-      <c r="OU1" t="s">
+      <c r="OV1" t="s">
         <v>372</v>
       </c>
-      <c r="OV1" t="s">
+      <c r="OW1" t="s">
         <v>373</v>
       </c>
-      <c r="OW1" t="s">
+      <c r="OX1" t="s">
         <v>374</v>
       </c>
-      <c r="OX1" t="s">
+      <c r="OY1" t="s">
         <v>375</v>
       </c>
-      <c r="OY1" t="s">
+      <c r="OZ1" t="s">
+        <v>139</v>
+      </c>
+      <c r="PA1" t="s">
         <v>376</v>
       </c>
-      <c r="OZ1" t="s">
+      <c r="PB1" t="s">
+        <v>377</v>
+      </c>
+      <c r="PC1" t="s">
+        <v>378</v>
+      </c>
+      <c r="PD1" t="s">
+        <v>379</v>
+      </c>
+      <c r="PE1" t="s">
+        <v>380</v>
+      </c>
+      <c r="PF1" t="s">
+        <v>381</v>
+      </c>
+      <c r="PG1" t="s">
+        <v>382</v>
+      </c>
+      <c r="PH1" t="s">
+        <v>383</v>
+      </c>
+      <c r="PI1" t="s">
+        <v>384</v>
+      </c>
+      <c r="PJ1" t="s">
+        <v>385</v>
+      </c>
+      <c r="PK1" t="s">
+        <v>386</v>
+      </c>
+      <c r="PL1" t="s">
+        <v>387</v>
+      </c>
+      <c r="PM1" t="s">
         <v>140</v>
       </c>
-      <c r="PA1" t="s">
-        <v>377</v>
-      </c>
-      <c r="PB1" t="s">
-        <v>378</v>
-      </c>
-      <c r="PC1" t="s">
-        <v>379</v>
-      </c>
-      <c r="PD1" t="s">
-        <v>380</v>
-      </c>
-      <c r="PE1" t="s">
-        <v>381</v>
-      </c>
-      <c r="PF1" t="s">
-        <v>382</v>
-      </c>
-      <c r="PG1" t="s">
-        <v>383</v>
-      </c>
-      <c r="PH1" t="s">
-        <v>384</v>
-      </c>
-      <c r="PI1" t="s">
-        <v>385</v>
-      </c>
-      <c r="PJ1" t="s">
-        <v>386</v>
-      </c>
-      <c r="PK1" t="s">
-        <v>387</v>
-      </c>
-      <c r="PL1" t="s">
+      <c r="PN1" t="s">
         <v>388</v>
       </c>
-      <c r="PM1" t="s">
+      <c r="PO1" t="s">
         <v>141</v>
       </c>
-      <c r="PN1" t="s">
-        <v>389</v>
-      </c>
-      <c r="PO1" t="s">
+      <c r="PP1" t="s">
         <v>142</v>
-      </c>
-      <c r="PP1" t="s">
-        <v>143</v>
       </c>
       <c r="PQ1" t="s">
         <v>16</v>
@@ -3631,60 +3631,60 @@
         <v>17</v>
       </c>
       <c r="PS1" t="s">
+        <v>468</v>
+      </c>
+      <c r="PT1" t="s">
         <v>18</v>
       </c>
-      <c r="PT1" t="s">
+      <c r="PU1" t="s">
         <v>19</v>
       </c>
-      <c r="PU1" t="s">
+      <c r="PV1" t="s">
         <v>20</v>
       </c>
-      <c r="PV1" t="s">
+      <c r="PW1" t="s">
         <v>21</v>
       </c>
-      <c r="PW1" t="s">
+      <c r="PX1" t="s">
         <v>22</v>
       </c>
-      <c r="PX1" t="s">
+      <c r="PY1" t="s">
         <v>23</v>
       </c>
-      <c r="PY1" t="s">
+      <c r="PZ1" t="s">
         <v>24</v>
       </c>
-      <c r="PZ1" t="s">
+      <c r="QA1" t="s">
         <v>25</v>
       </c>
-      <c r="QA1" t="s">
+      <c r="QB1" t="s">
         <v>26</v>
       </c>
-      <c r="QB1" t="s">
+      <c r="QC1" t="s">
         <v>27</v>
       </c>
-      <c r="QC1" t="s">
+      <c r="QD1" t="s">
         <v>28</v>
       </c>
-      <c r="QD1" t="s">
+      <c r="QE1" t="s">
         <v>29</v>
       </c>
-      <c r="QE1" t="s">
+      <c r="QF1" t="s">
         <v>30</v>
       </c>
-      <c r="QF1" t="s">
+      <c r="QG1" t="s">
         <v>31</v>
-      </c>
-      <c r="QG1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:449" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>1959</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>20</v>
@@ -3693,22 +3693,22 @@
         <v>2002</v>
       </c>
       <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AP2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -3720,43 +3720,43 @@
         <v>1</v>
       </c>
       <c r="BU2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="CH2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="CJ2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="CK2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="CL2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CM2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="CN2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CO2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CR2">
         <v>1</v>
       </c>
       <c r="CW2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="CX2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="CZ2">
         <v>1</v>
       </c>
       <c r="DH2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="DI2">
         <v>3</v>
@@ -3807,70 +3807,70 @@
         <v>1</v>
       </c>
       <c r="JO2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="JQ2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="JS2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="JT2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="KH2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="KJ2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="KM2" t="s">
+        <v>37</v>
+      </c>
+      <c r="KO2" t="s">
+        <v>33</v>
+      </c>
+      <c r="KQ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="LD2" t="s">
+        <v>47</v>
+      </c>
+      <c r="LF2" t="s">
+        <v>33</v>
+      </c>
+      <c r="LH2" t="s">
+        <v>33</v>
+      </c>
+      <c r="LJ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="LL2" t="s">
+        <v>33</v>
+      </c>
+      <c r="LN2" t="s">
         <v>38</v>
       </c>
-      <c r="KO2" t="s">
-        <v>34</v>
-      </c>
-      <c r="KQ2" t="s">
-        <v>34</v>
-      </c>
-      <c r="LD2" t="s">
-        <v>48</v>
-      </c>
-      <c r="LF2" t="s">
-        <v>34</v>
-      </c>
-      <c r="LH2" t="s">
-        <v>34</v>
-      </c>
-      <c r="LJ2" t="s">
-        <v>34</v>
-      </c>
-      <c r="LL2" t="s">
-        <v>34</v>
-      </c>
-      <c r="LN2" t="s">
+      <c r="LP2" t="s">
+        <v>38</v>
+      </c>
+      <c r="LR2" t="s">
+        <v>33</v>
+      </c>
+      <c r="LT2" t="s">
+        <v>46</v>
+      </c>
+      <c r="LV2" t="s">
+        <v>33</v>
+      </c>
+      <c r="LX2" t="s">
+        <v>33</v>
+      </c>
+      <c r="NB2" t="s">
         <v>39</v>
       </c>
-      <c r="LP2" t="s">
-        <v>39</v>
-      </c>
-      <c r="LR2" t="s">
-        <v>34</v>
-      </c>
-      <c r="LT2" t="s">
-        <v>47</v>
-      </c>
-      <c r="LV2" t="s">
-        <v>34</v>
-      </c>
-      <c r="LX2" t="s">
-        <v>34</v>
-      </c>
-      <c r="NB2" t="s">
+      <c r="ND2" t="s">
         <v>40</v>
-      </c>
-      <c r="ND2" t="s">
-        <v>41</v>
       </c>
       <c r="NK2">
         <v>1</v>
@@ -3882,28 +3882,28 @@
         <v>1</v>
       </c>
       <c r="OS2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="PA2" t="s">
+        <v>41</v>
+      </c>
+      <c r="PC2" t="s">
         <v>42</v>
       </c>
-      <c r="PC2" t="s">
+      <c r="PJ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="PL2" t="s">
         <v>43</v>
       </c>
-      <c r="PJ2" t="s">
-        <v>34</v>
-      </c>
-      <c r="PL2" t="s">
+      <c r="PN2" t="s">
         <v>44</v>
       </c>
-      <c r="PN2" t="s">
-        <v>45</v>
-      </c>
       <c r="PP2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="QF2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:449" x14ac:dyDescent="0.25">
